--- a/data/trans_orig/MCS12_SP_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>541705</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>510243</v>
+        <v>510855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>575964</v>
+        <v>571794</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5250487848594034</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4945537842874003</v>
+        <v>0.4951476468058789</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.558254884992422</v>
+        <v>0.5542128996573585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>720</v>
@@ -765,19 +765,19 @@
         <v>737011</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>701808</v>
+        <v>701769</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>774162</v>
+        <v>770943</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5604162763208133</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5336485554308565</v>
+        <v>0.5336187606188046</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5886658327302338</v>
+        <v>0.5862182175219114</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1261</v>
@@ -786,19 +786,19 @@
         <v>1278715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1230233</v>
+        <v>1236021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1327981</v>
+        <v>1331202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5448679137838336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5242093964999177</v>
+        <v>0.5266756655061721</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5658603561673277</v>
+        <v>0.5672327229203429</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>490018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>455759</v>
+        <v>459929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521480</v>
+        <v>520868</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4749512151405966</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.441745115007578</v>
+        <v>0.4457871003426414</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5054462157125997</v>
+        <v>0.5048523531941213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>571</v>
@@ -836,19 +836,19 @@
         <v>578102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>540951</v>
+        <v>544170</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>613305</v>
+        <v>613344</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4395837236791867</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4113341672697663</v>
+        <v>0.413781782478089</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4663514445691437</v>
+        <v>0.4663812393811955</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1068</v>
@@ -857,19 +857,19 @@
         <v>1068120</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1018854</v>
+        <v>1015633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1116602</v>
+        <v>1110814</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4551320862161664</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4341396438326723</v>
+        <v>0.4327672770796571</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4757906035000823</v>
+        <v>0.4733243344938279</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>658072</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>620730</v>
+        <v>618341</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>700669</v>
+        <v>699026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3886071471759422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3665557872631915</v>
+        <v>0.3651450516059826</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4137615187220008</v>
+        <v>0.4127910839358169</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>820</v>
@@ -982,19 +982,19 @@
         <v>840541</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>795260</v>
+        <v>800735</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>876804</v>
+        <v>878972</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5294167254712803</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5008965047876326</v>
+        <v>0.5043448455575841</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5522572730978473</v>
+        <v>0.5536230925976333</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1457</v>
@@ -1003,19 +1003,19 @@
         <v>1498613</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1446376</v>
+        <v>1438845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1557104</v>
+        <v>1555206</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.456743002064919</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4408224102888438</v>
+        <v>0.4385271953834009</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4745696629239497</v>
+        <v>0.4739911742198136</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1035341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>992744</v>
+        <v>994387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1072683</v>
+        <v>1075072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6113928528240578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5862384812779993</v>
+        <v>0.5872089160641832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6334442127368085</v>
+        <v>0.6348549483940173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>734</v>
@@ -1053,19 +1053,19 @@
         <v>747132</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>710869</v>
+        <v>708701</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>792413</v>
+        <v>786938</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4705832745287197</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4477427269021526</v>
+        <v>0.4463769074023667</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4991034952123673</v>
+        <v>0.4956551544424159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1746</v>
@@ -1074,19 +1074,19 @@
         <v>1782473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1723982</v>
+        <v>1725880</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1834710</v>
+        <v>1842241</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.543256997935081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5254303370760504</v>
+        <v>0.5260088257801864</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5591775897111562</v>
+        <v>0.561472804616599</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>216336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195776</v>
+        <v>191333</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>242069</v>
+        <v>239115</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3923331817615527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3550469163090577</v>
+        <v>0.3469906966214842</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4390024796571597</v>
+        <v>0.4336452296463107</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>242</v>
@@ -1199,19 +1199,19 @@
         <v>253347</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>232207</v>
+        <v>230915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275373</v>
+        <v>274494</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5317811815258497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4874077215479563</v>
+        <v>0.4846967192969117</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5780136530514272</v>
+        <v>0.5761686185893872</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>446</v>
@@ -1220,19 +1220,19 @@
         <v>469683</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>434716</v>
+        <v>435485</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>501741</v>
+        <v>499764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4569696720421647</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4229493905093828</v>
+        <v>0.4236975948217587</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4881605912121638</v>
+        <v>0.4862364385319802</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>335072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309339</v>
+        <v>312293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>355632</v>
+        <v>360075</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6076668182384473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5609975203428402</v>
+        <v>0.5663547703536895</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6449530836909423</v>
+        <v>0.6530093033785158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>210</v>
@@ -1270,19 +1270,19 @@
         <v>223065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>201039</v>
+        <v>201918</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>244205</v>
+        <v>245497</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4682188184741503</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4219863469485727</v>
+        <v>0.4238313814106128</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5125922784520435</v>
+        <v>0.5153032807030883</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>533</v>
@@ -1291,19 +1291,19 @@
         <v>558137</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>526079</v>
+        <v>528056</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>593104</v>
+        <v>592335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5430303279578353</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5118394087878362</v>
+        <v>0.5137635614680197</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.577050609490617</v>
+        <v>0.5763024051782413</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1416113</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1358756</v>
+        <v>1362283</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1474694</v>
+        <v>1476078</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4321971455065917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.414692007002441</v>
+        <v>0.4157683260250113</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4500762056060974</v>
+        <v>0.45049844778864</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1782</v>
@@ -1416,19 +1416,19 @@
         <v>1830898</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1773308</v>
+        <v>1767675</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1888675</v>
+        <v>1886844</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5418144492936345</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5247719197396368</v>
+        <v>0.5231049842803942</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5589122367738513</v>
+        <v>0.5583703995645004</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3164</v>
@@ -1437,19 +1437,19 @@
         <v>3247011</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3168994</v>
+        <v>3168640</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3332888</v>
+        <v>3329927</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.487851131820891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4761293522187702</v>
+        <v>0.4760762846735229</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5007538817860366</v>
+        <v>0.5003090539878823</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1860430</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1801849</v>
+        <v>1800465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1917787</v>
+        <v>1914260</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5678028544934083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5499237943939027</v>
+        <v>0.54950155221136</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5853079929975593</v>
+        <v>0.5842316739749887</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1515</v>
@@ -1487,19 +1487,19 @@
         <v>1548299</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1490522</v>
+        <v>1492353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1605889</v>
+        <v>1611522</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4581855507063654</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4410877632261487</v>
+        <v>0.4416296004354996</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4752280802603633</v>
+        <v>0.4768950157196057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3347</v>
@@ -1508,19 +1508,19 @@
         <v>3408730</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3322853</v>
+        <v>3325814</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3486747</v>
+        <v>3487101</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.512148868179109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4992461182139633</v>
+        <v>0.4996909460121177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5238706477812297</v>
+        <v>0.5239237153264772</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>531328</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>498201</v>
+        <v>498497</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>559232</v>
+        <v>563810</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5451517538236542</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5111621093971702</v>
+        <v>0.5114660007003838</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5737814151612226</v>
+        <v>0.5784781943888786</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>840</v>
@@ -1872,19 +1872,19 @@
         <v>898961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>861235</v>
+        <v>864637</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>932119</v>
+        <v>934130</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6719709058302975</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6437708691284714</v>
+        <v>0.6463143215652366</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6967564833249622</v>
+        <v>0.6982597471220171</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1337</v>
@@ -1893,19 +1893,19 @@
         <v>1430289</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1385439</v>
+        <v>1384459</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1485506</v>
+        <v>1477741</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.618519389775137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5991245158147026</v>
+        <v>0.5987006524588353</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.642397726073528</v>
+        <v>0.6390397615546807</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>443315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415411</v>
+        <v>410833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>476442</v>
+        <v>476146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4548482461763458</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4262185848387774</v>
+        <v>0.4215218056111215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4888378906028298</v>
+        <v>0.4885339992996162</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>407</v>
@@ -1943,19 +1943,19 @@
         <v>438836</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>405678</v>
+        <v>403667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>476562</v>
+        <v>473160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3280290941697024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3032435166750378</v>
+        <v>0.3017402528779828</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3562291308715286</v>
+        <v>0.3536856784347633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>818</v>
@@ -1964,19 +1964,19 @@
         <v>882151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>826934</v>
+        <v>834699</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>927001</v>
+        <v>927981</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.381480610224863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.357602273926472</v>
+        <v>0.3609602384453193</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4008754841852973</v>
+        <v>0.4012993475411646</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>926451</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>879765</v>
+        <v>882037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>970666</v>
+        <v>972165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4717266433247788</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4479550981286355</v>
+        <v>0.4491123799247376</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4942398328335064</v>
+        <v>0.4950032802336452</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>972</v>
@@ -2089,19 +2089,19 @@
         <v>1049070</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1006239</v>
+        <v>1004719</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1091082</v>
+        <v>1091078</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5968073100218849</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5724414745662528</v>
+        <v>0.5715763679587341</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6207075848487391</v>
+        <v>0.6207053510454769</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1849</v>
@@ -2110,19 +2110,19 @@
         <v>1975520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1917017</v>
+        <v>1916397</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2044615</v>
+        <v>2042504</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5308027591080793</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5150835689609632</v>
+        <v>0.5149167949830507</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5493678013078601</v>
+        <v>0.5488006819382282</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1037506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>993291</v>
+        <v>991792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1084192</v>
+        <v>1081920</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5282733566752212</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5057601671664935</v>
+        <v>0.5049967197663546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5520449018713646</v>
+        <v>0.5508876200752624</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>663</v>
@@ -2160,19 +2160,19 @@
         <v>708733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>666721</v>
+        <v>666725</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>751564</v>
+        <v>753084</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4031926899781151</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3792924151512608</v>
+        <v>0.3792946489545231</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4275585254337472</v>
+        <v>0.4284236320412658</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1642</v>
@@ -2181,19 +2181,19 @@
         <v>1746240</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1677145</v>
+        <v>1679256</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1804743</v>
+        <v>1805363</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4691972408919207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4506321986921399</v>
+        <v>0.4511993180617718</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4849164310390367</v>
+        <v>0.4850832050169492</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>216468</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>192542</v>
+        <v>194282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240351</v>
+        <v>244909</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4498672215055314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4001437372877565</v>
+        <v>0.4037605231299983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4995012449403068</v>
+        <v>0.5089739473199487</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>222</v>
@@ -2306,19 +2306,19 @@
         <v>249215</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>225136</v>
+        <v>223853</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>272317</v>
+        <v>271588</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5433889313267114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4908861112989065</v>
+        <v>0.4880897742026948</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5937613572192929</v>
+        <v>0.5921714009618462</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>412</v>
@@ -2327,19 +2327,19 @@
         <v>465683</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>430475</v>
+        <v>433433</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>501107</v>
+        <v>500955</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4955060721676406</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4580434652075561</v>
+        <v>0.4611908174985049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5331981619102176</v>
+        <v>0.5330364240697791</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>264713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>240830</v>
+        <v>236272</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>288639</v>
+        <v>286899</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5501327784944686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5004987550596932</v>
+        <v>0.4910260526800513</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5998562627122435</v>
+        <v>0.5962394768700019</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>190</v>
@@ -2377,19 +2377,19 @@
         <v>209416</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>186314</v>
+        <v>187043</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>233495</v>
+        <v>234778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4566110686732887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4062386427807071</v>
+        <v>0.4078285990381534</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5091138887010935</v>
+        <v>0.5119102257973052</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>438</v>
@@ -2398,19 +2398,19 @@
         <v>474130</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>438706</v>
+        <v>438858</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>509338</v>
+        <v>506380</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5044939278323594</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4668018380897825</v>
+        <v>0.4669635759302209</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.541956534792444</v>
+        <v>0.5388091825014952</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1674247</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1609936</v>
+        <v>1618806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1730686</v>
+        <v>1732633</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4895771745578147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4707716346386225</v>
+        <v>0.4733652761461905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5060807065513012</v>
+        <v>0.5066500780695427</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2034</v>
@@ -2523,19 +2523,19 @@
         <v>2197245</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2131991</v>
+        <v>2136941</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2254016</v>
+        <v>2256321</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6182055491909495</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5998460135458281</v>
+        <v>0.6012387861055973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6341784468083361</v>
+        <v>0.6348269454594744</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3598</v>
@@ -2544,19 +2544,19 @@
         <v>3871492</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3782964</v>
+        <v>3785327</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3956341</v>
+        <v>3961891</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5551312424375141</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5424372551613811</v>
+        <v>0.5427761006465086</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5672977761670595</v>
+        <v>0.5680934693987063</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1745535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1689096</v>
+        <v>1687149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1809846</v>
+        <v>1800976</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5104228254421853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4939192934486988</v>
+        <v>0.4933499219304573</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5292283653613775</v>
+        <v>0.5266347238538095</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1260</v>
@@ -2594,19 +2594,19 @@
         <v>1356985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1300214</v>
+        <v>1297909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1422239</v>
+        <v>1417289</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3817944508090505</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3658215531916638</v>
+        <v>0.3651730545405256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4001539864541719</v>
+        <v>0.3987612138944027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2898</v>
@@ -2615,19 +2615,19 @@
         <v>3102520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3017671</v>
+        <v>3012121</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3191048</v>
+        <v>3188685</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4448687575624858</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4327022238329405</v>
+        <v>0.4319065306012937</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.457562744838619</v>
+        <v>0.4572238993534913</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>425256</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>399040</v>
+        <v>400078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>451473</v>
+        <v>451853</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5637411045065339</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5289870689138403</v>
+        <v>0.5303634711471854</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5984951242997685</v>
+        <v>0.5989987299916443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>554</v>
@@ -2979,19 +2979,19 @@
         <v>613793</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>582567</v>
+        <v>582562</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>645254</v>
+        <v>644366</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6170881715811968</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5856950871954557</v>
+        <v>0.5856895355814334</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6487180593024942</v>
+        <v>0.6478255170958321</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>986</v>
@@ -3000,19 +3000,19 @@
         <v>1039049</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>998307</v>
+        <v>1000300</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1081415</v>
+        <v>1080988</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5940795791110524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5707848538344953</v>
+        <v>0.5719245876044553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6183019877304358</v>
+        <v>0.6180579308169963</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>329091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>302874</v>
+        <v>302494</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>355307</v>
+        <v>354269</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.436258895493466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4015048757002315</v>
+        <v>0.4010012700083558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4710129310861597</v>
+        <v>0.4696365288528146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>338</v>
@@ -3050,19 +3050,19 @@
         <v>380867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>349406</v>
+        <v>350294</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>412093</v>
+        <v>412098</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3829118284188032</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3512819406975057</v>
+        <v>0.3521744829041679</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4143049128045443</v>
+        <v>0.4143104644185666</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>668</v>
@@ -3071,19 +3071,19 @@
         <v>709958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>667592</v>
+        <v>668019</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>750700</v>
+        <v>748707</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4059204208889477</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3816980122695642</v>
+        <v>0.3819420691830037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4292151461655047</v>
+        <v>0.4280754123955448</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>955070</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>903011</v>
+        <v>909293</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1000006</v>
+        <v>1000563</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4599675440534772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4348957105849717</v>
+        <v>0.4379210647203746</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4816093422540745</v>
+        <v>0.4818771829281946</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1001</v>
@@ -3196,19 +3196,19 @@
         <v>1045553</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1000055</v>
+        <v>1003609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1086889</v>
+        <v>1092032</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5258527551764439</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5029696399687523</v>
+        <v>0.5047571554520216</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5466421645618832</v>
+        <v>0.5492289371154345</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1899</v>
@@ -3217,19 +3217,19 @@
         <v>2000623</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1935996</v>
+        <v>1942187</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2064019</v>
+        <v>2061735</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4921962576115936</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.476296587874505</v>
+        <v>0.4778198147041743</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5077932071276765</v>
+        <v>0.5072311708047489</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1121315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1076379</v>
+        <v>1075822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1173374</v>
+        <v>1167092</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5400324559465227</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5183906577459255</v>
+        <v>0.5181228170718054</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5651042894150283</v>
+        <v>0.5620789352796253</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>907</v>
@@ -3267,19 +3267,19 @@
         <v>942747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>901411</v>
+        <v>896268</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>988245</v>
+        <v>984691</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4741472448235561</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4533578354381168</v>
+        <v>0.4507710628845656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4970303600312477</v>
+        <v>0.4952428445479785</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1961</v>
@@ -3288,19 +3288,19 @@
         <v>2064062</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2000666</v>
+        <v>2002950</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2128689</v>
+        <v>2122498</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5078037423884063</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4922067928723236</v>
+        <v>0.4927688291952511</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5237034121254951</v>
+        <v>0.5221801852958258</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>244585</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>221430</v>
+        <v>220765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272422</v>
+        <v>268154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4472313249353329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4048924553988758</v>
+        <v>0.4036763834422106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.49813327189061</v>
+        <v>0.4903281095455036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>268</v>
@@ -3413,19 +3413,19 @@
         <v>278082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>252878</v>
+        <v>253547</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>301166</v>
+        <v>302034</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5063957345862179</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4604989542716654</v>
+        <v>0.4617157913434701</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5484316658116242</v>
+        <v>0.5500120412001654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>491</v>
@@ -3434,19 +3434,19 @@
         <v>522667</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>490552</v>
+        <v>492115</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>556970</v>
+        <v>559586</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4768743700067191</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4475727600439693</v>
+        <v>0.4489989596045784</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5081715507732472</v>
+        <v>0.5105585740271066</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>302301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>274464</v>
+        <v>278732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>325456</v>
+        <v>326121</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5527686750646671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5018667281093897</v>
+        <v>0.5096718904544961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5951075446011241</v>
+        <v>0.5963236165577892</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>258</v>
@@ -3484,19 +3484,19 @@
         <v>271058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>247974</v>
+        <v>247106</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>296262</v>
+        <v>295593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4936042654137821</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4515683341883758</v>
+        <v>0.4499879587998344</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5395010457283342</v>
+        <v>0.5382842086565299</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>536</v>
@@ -3505,19 +3505,19 @@
         <v>573360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>539057</v>
+        <v>536441</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>605475</v>
+        <v>603912</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5231256299932808</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4918284492267528</v>
+        <v>0.4894414259728934</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5524272399560306</v>
+        <v>0.5510010403954216</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1624911</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1566687</v>
+        <v>1567599</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1682011</v>
+        <v>1686115</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4810818295566668</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.463843603932724</v>
+        <v>0.4641136150400106</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4979874605284615</v>
+        <v>0.4992024217674991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1823</v>
@@ -3630,19 +3630,19 @@
         <v>1937428</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1876361</v>
+        <v>1873565</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1995831</v>
+        <v>2000691</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5485201733742346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5312308749226121</v>
+        <v>0.5304393724974104</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5650550663196019</v>
+        <v>0.5664311118764789</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3376</v>
@@ -3651,19 +3651,19 @@
         <v>3562339</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3475107</v>
+        <v>3482306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3646089</v>
+        <v>3651998</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5155548710831471</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5029303806716108</v>
+        <v>0.5039722511160589</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5276755141235884</v>
+        <v>0.5285307462805701</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1752707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1695607</v>
+        <v>1691503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1810931</v>
+        <v>1810019</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5189181704433332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5020125394715386</v>
+        <v>0.5007975782325009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5361563960672762</v>
+        <v>0.5358863849599895</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1503</v>
@@ -3701,19 +3701,19 @@
         <v>1594672</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1536269</v>
+        <v>1531409</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1655739</v>
+        <v>1658535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4514798266257654</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4349449336803982</v>
+        <v>0.4335688881235212</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.468769125077388</v>
+        <v>0.4695606275025896</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3165</v>
@@ -3722,19 +3722,19 @@
         <v>3347379</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3263629</v>
+        <v>3257720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3434611</v>
+        <v>3427412</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4844451289168529</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4723244858764116</v>
+        <v>0.4714692537194299</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4970696193283892</v>
+        <v>0.496027748883941</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>285741</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>264127</v>
+        <v>263933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>309929</v>
+        <v>310150</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4981638072453154</v>
+        <v>0.4981638072453155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4604808309528283</v>
+        <v>0.4601428757435967</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5403327804308946</v>
+        <v>0.5407189927110426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>873</v>
@@ -4086,19 +4086,19 @@
         <v>501677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>482066</v>
+        <v>479057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>523458</v>
+        <v>522848</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6182303237532817</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5940631706032786</v>
+        <v>0.5903555305075909</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6450719247852484</v>
+        <v>0.6443204660017162</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1226</v>
@@ -4107,19 +4107,19 @@
         <v>787418</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>754078</v>
+        <v>753127</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>820707</v>
+        <v>817507</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.568507694929744</v>
+        <v>0.5685076949297441</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5444365803462907</v>
+        <v>0.5437501000837164</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.592541866157236</v>
+        <v>0.590231906025711</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>287848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>263660</v>
+        <v>263439</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309462</v>
+        <v>309656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5018361927546845</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4596672195691053</v>
+        <v>0.4592810072889578</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5395191690471717</v>
+        <v>0.5398571242564033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>534</v>
@@ -4157,19 +4157,19 @@
         <v>309795</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288014</v>
+        <v>288624</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>329406</v>
+        <v>332415</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3817696762467183</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3549280752147516</v>
+        <v>0.3556795339982837</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4059368293967214</v>
+        <v>0.4096444694924091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>866</v>
@@ -4178,19 +4178,19 @@
         <v>597643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>564354</v>
+        <v>567554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>630983</v>
+        <v>631934</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.431492305070256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.407458133842764</v>
+        <v>0.4097680939742896</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4555634196537092</v>
+        <v>0.4562498999162837</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>887951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>837432</v>
+        <v>834623</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>946259</v>
+        <v>945298</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3998036816660641</v>
+        <v>0.3998036816660642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3770575297618008</v>
+        <v>0.3757925985923231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4260572570432409</v>
+        <v>0.4256244241505009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1456</v>
@@ -4303,19 +4303,19 @@
         <v>1023723</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>975797</v>
+        <v>983661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1068014</v>
+        <v>1064628</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4727593319540532</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4506269653437443</v>
+        <v>0.4542585308640668</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4932135076647122</v>
+        <v>0.4916497536389157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2320</v>
@@ -4324,19 +4324,19 @@
         <v>1911674</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1846013</v>
+        <v>1845673</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1981453</v>
+        <v>1986528</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4358195733015672</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4208502539473711</v>
+        <v>0.4207728845995506</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4517276379613432</v>
+        <v>0.4528846334709556</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1333016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1274708</v>
+        <v>1275669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1383535</v>
+        <v>1386344</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6001963183339358</v>
+        <v>0.6001963183339359</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5739427429567592</v>
+        <v>0.5743755758494992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6229424702381994</v>
+        <v>0.6242074014076779</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1455</v>
@@ -4374,19 +4374,19 @@
         <v>1141697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1097406</v>
+        <v>1100792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1189623</v>
+        <v>1181759</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5272406680459468</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5067864923352876</v>
+        <v>0.5083502463610842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5493730346562558</v>
+        <v>0.5457414691359332</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2574</v>
@@ -4395,19 +4395,19 @@
         <v>2474714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2404935</v>
+        <v>2399860</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2540375</v>
+        <v>2540715</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5641804266984328</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5482723620386568</v>
+        <v>0.5471153665290442</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5791497460526289</v>
+        <v>0.5792271154004497</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>293152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>265289</v>
+        <v>263548</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>322297</v>
+        <v>319208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4133948621279769</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3741023596254346</v>
+        <v>0.3716472930745001</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4544941068402194</v>
+        <v>0.450138297207912</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>500</v>
@@ -4520,19 +4520,19 @@
         <v>358254</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>333762</v>
+        <v>333298</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>380969</v>
+        <v>382044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4895580231056402</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4560893714182926</v>
+        <v>0.4554554600809684</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5205982955079242</v>
+        <v>0.5220667910814789</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>799</v>
@@ -4541,19 +4541,19 @@
         <v>651407</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>616681</v>
+        <v>612600</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>687952</v>
+        <v>690201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.452075230115653</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4279754611050885</v>
+        <v>0.425143387437324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.477437949848064</v>
+        <v>0.4789987539477723</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>415982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>386837</v>
+        <v>389926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>443845</v>
+        <v>445586</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5866051378720231</v>
+        <v>0.586605137872023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5455058931597806</v>
+        <v>0.5498617027920881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6258976403745652</v>
+        <v>0.6283527069254998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>501</v>
@@ -4591,19 +4591,19 @@
         <v>373537</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>350822</v>
+        <v>349747</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>398029</v>
+        <v>398493</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5104419768943599</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4794017044920757</v>
+        <v>0.477933208918521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5439106285817072</v>
+        <v>0.5445445399190315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>881</v>
@@ -4612,19 +4612,19 @@
         <v>789518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>752973</v>
+        <v>750724</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>824244</v>
+        <v>828325</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5479247698843468</v>
+        <v>0.5479247698843469</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5225620501519359</v>
+        <v>0.5210012460522275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5720245388949116</v>
+        <v>0.5748566125626758</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1466845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1402558</v>
+        <v>1400592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1530685</v>
+        <v>1529687</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4186570288315322</v>
+        <v>0.4186570288315321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4003087150091765</v>
+        <v>0.3997475726492955</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.436877894305266</v>
+        <v>0.436593059301958</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2829</v>
@@ -4737,19 +4737,19 @@
         <v>1883653</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1832406</v>
+        <v>1829489</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1946139</v>
+        <v>1938909</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5079035387954177</v>
+        <v>0.5079035387954178</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4940854130811208</v>
+        <v>0.4932989042538565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5247519634214532</v>
+        <v>0.5228024933817397</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4345</v>
@@ -4758,19 +4758,19 @@
         <v>3350498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3271893</v>
+        <v>3258398</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3443604</v>
+        <v>3437612</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4645485813155907</v>
+        <v>0.4645485813155908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.453649993894126</v>
+        <v>0.4517787937728774</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.477457725528008</v>
+        <v>0.4766269371558313</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2036846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1973006</v>
+        <v>1974004</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2101133</v>
+        <v>2103099</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5813429711684678</v>
+        <v>0.5813429711684679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5631221056947341</v>
+        <v>0.5634069406980419</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5996912849908236</v>
+        <v>0.6002524273507046</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2490</v>
@@ -4808,19 +4808,19 @@
         <v>1825030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1762544</v>
+        <v>1769774</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1876277</v>
+        <v>1879194</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4920964612045823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4752480365785467</v>
+        <v>0.4771975066182605</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5059145869188791</v>
+        <v>0.5067010957461437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4321</v>
@@ -4829,19 +4829,19 @@
         <v>3861876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3768770</v>
+        <v>3774762</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3940481</v>
+        <v>3953976</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5354514186844092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.522542274471992</v>
+        <v>0.5233730628441687</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.546350006105874</v>
+        <v>0.5482212062271227</v>
       </c>
     </row>
     <row r="15">
